--- a/Datos/Database by set/Set with text box/Xlsx sets/Shadowmoor Promos (PSHM).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Shadowmoor Promos (PSHM).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,84 +444,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Demigod of Revenge</t>
+          <t>('Demigod of Revenge', ['{B/R}{B/R}{B/R}{B/R}{B/R}', 'Creature — Spirit Avatar', 'When you cast this spell, return all cards named Demigod of Revenge from your graveyard to the battlefield.', 'Flying, haste', '5/4'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{B/R}{B/R}{B/R}{B/R}{B/R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Creature — Spirit Avatar</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>When you cast this spell, return all cards named Demigod of Revenge from your graveyard to the battlefield.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Flying, haste</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>5/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Vexing Shusher</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>{R/G}{R/G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Creature — Goblin Shaman</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>This spell can’t be countered.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>{R/G}: Target spell can’t be countered.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2/2</t>
+          <t>('Vexing Shusher', ['{R/G}{R/G}', 'Creature — Goblin Shaman', 'This spell can’t be countered.', '{R/G}: Target spell can’t be countered.', '2/2'])</t>
         </is>
       </c>
     </row>
